--- a/4_prototyping/Gannt_Chart.xlsx
+++ b/4_prototyping/Gannt_Chart.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantang/projects/year2/software-project/4_Prototyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantang/Desktop/Files/OneDrive - Goldsmiths College/Year-2/2-Software_Projects/gitrepo/4_prototyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F61A761F0D3363A527E24ABC41E110996E9CAB78" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Task</t>
   </si>
@@ -53,23 +52,26 @@
     <t>Further stakeholder research</t>
   </si>
   <si>
-    <t>UI/UX Prototyping</t>
+    <t>Reviewing prototypes</t>
   </si>
   <si>
-    <t>Research on iOS/Android platforms</t>
+    <t>Technical Architecture</t>
   </si>
   <si>
-    <t>AR Prototype</t>
+    <t>iOS/Android/Unity AR Prototype</t>
   </si>
   <si>
-    <t>Research geo-targeting based applications</t>
+    <t>UI/UX Prototype</t>
+  </si>
+  <si>
+    <t>Calculating routes prototype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,7 +231,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -264,7 +266,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -354,7 +356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -398,9 +400,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Storyboard</c:v>
                 </c:pt>
@@ -408,48 +410,54 @@
                   <c:v>Further stakeholder research</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>UI/UX Prototyping</c:v>
+                  <c:v>UI/UX Prototype</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Research on iOS/Android platforms</c:v>
+                  <c:v>iOS/Android/Unity AR Prototype</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AR Prototype</c:v>
+                  <c:v>Calculating routes prototype</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Research geo-targeting based applications</c:v>
+                  <c:v>Reviewing prototypes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Technical Architecture</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43402</c:v>
+                  <c:v>43402.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43407</c:v>
+                  <c:v>43407.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43411</c:v>
+                  <c:v>43411.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43407</c:v>
+                  <c:v>43415.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43407</c:v>
+                  <c:v>43420.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43418</c:v>
+                  <c:v>43423.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43423.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E57-4264-893E-50F0FB573D88}"/>
             </c:ext>
@@ -481,9 +489,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Storyboard</c:v>
                 </c:pt>
@@ -491,48 +499,54 @@
                   <c:v>Further stakeholder research</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>UI/UX Prototyping</c:v>
+                  <c:v>UI/UX Prototype</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Research on iOS/Android platforms</c:v>
+                  <c:v>iOS/Android/Unity AR Prototype</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AR Prototype</c:v>
+                  <c:v>Calculating routes prototype</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Research geo-targeting based applications</c:v>
+                  <c:v>Reviewing prototypes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Technical Architecture</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3E57-4264-893E-50F0FB573D88}"/>
             </c:ext>
@@ -548,11 +562,11 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="-1022806384"/>
-        <c:axId val="-1022777600"/>
+        <c:axId val="873363696"/>
+        <c:axId val="873366016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1022806384"/>
+        <c:axId val="873363696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -595,7 +609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022777600"/>
+        <c:crossAx val="873366016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,10 +617,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022777600"/>
+        <c:axId val="873366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43400"/>
+          <c:min val="43400.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -657,7 +671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022806384"/>
+        <c:crossAx val="873363696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,13 +1271,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1271,7 +1285,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,18 +1307,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Duration" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="End Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Task" dataDxfId="3"/>
+    <tableColumn id="2" name="Start Date" dataDxfId="2"/>
+    <tableColumn id="3" name="Duration" dataDxfId="1"/>
+    <tableColumn id="4" name="End Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1572,21 +1586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1629,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1623,15 +1637,15 @@
         <v>43407</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
-        <v>43410</v>
+        <v>43413</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>43411</v>
@@ -1640,49 +1654,63 @@
         <v>4</v>
       </c>
       <c r="D4" s="5">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
         <v>43415</v>
       </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43420</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43407</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>43418</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43420</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43424</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43407</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="C7" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12">
         <v>43426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43423</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43433</v>
       </c>
     </row>
   </sheetData>
